--- a/biology/Zoologie/Canard_à_ailes_blanches/Canard_à_ailes_blanches.xlsx
+++ b/biology/Zoologie/Canard_à_ailes_blanches/Canard_à_ailes_blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_ailes_blanches</t>
+          <t>Canard_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asarcornis scutulata
 Le Canard à ailes blanches (Asarcornis scutulata ; on rencontre aussi la coquille Asacornis scutulata) est une espèce menacée et mal connue d'oiseaux que l'on rencontre dans le sud de l'Asie. C'est la seule espèce du genre Asarcornis.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_ailes_blanches</t>
+          <t>Canard_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traditionnellement considéré comme proche du Canard musqué, certains auteurs le plaçaient même dans le genre Cairina. Cependant les analyses de l'ADN mitochondrial portant sur le Cytochrome b et protéine subunit NADH déshydrogénase, deux séquences ADN[1] et l'analyse biogéographiques de leur distribution contredisent cette hypothèse. Ainsi, il est plus logique de placer cette espèce dans un genre monotypique que de le rapprocher du Canard de Barbarie. En revanche elle indique une relation plus proche avec les canards plongeurs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement considéré comme proche du Canard musqué, certains auteurs le plaçaient même dans le genre Cairina. Cependant les analyses de l'ADN mitochondrial portant sur le Cytochrome b et protéine subunit NADH déshydrogénase, deux séquences ADN et l'analyse biogéographiques de leur distribution contredisent cette hypothèse. Ainsi, il est plus logique de placer cette espèce dans un genre monotypique que de le rapprocher du Canard de Barbarie. En revanche elle indique une relation plus proche avec les canards plongeurs.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_ailes_blanches</t>
+          <t>Canard_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Historiquement, le canard à aile blanche était largement présent au nord-est de l'Inde et au Bangladesh, et dans le Sud-Est asiatique, de Java et de Sumatra. Toutefois, en 2002, la population totale de ces oiseaux ne dépassait pas 800, avec 200 spécimens répartis au Laos, Thaïlande, Vietnam et Cambodge, 150 à Sumatra, notamment dans Way Kambas National Park et 450 répartis entre l'Inde, le Bangladesh et la Birmanie.
 </t>
